--- a/aiurt-module-system/src/main/resources/templates/emergencyTrainingRecordError.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/emergencyTrainingRecordError.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25785" windowHeight="11145"/>
+    <workbookView windowWidth="24660" windowHeight="11145"/>
   </bookViews>
   <sheets>
     <sheet name="导入模板" sheetId="1" r:id="rId1"/>
@@ -218,10 +218,10 @@
     <t>t.trainingTime</t>
   </si>
   <si>
-    <t>t.trainingContent</t>
-  </si>
-  <si>
-    <t>t.mistake}}</t>
+    <t>t.trainingContent}}</t>
+  </si>
+  <si>
+    <t>{{$fe:mistakeMapList t.mistake}}</t>
   </si>
   <si>
     <t>训练效果及建议</t>
@@ -664,7 +664,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -728,6 +728,47 @@
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top/>
       <bottom style="thin">
         <color rgb="FF000000"/>
       </bottom>
@@ -842,7 +883,7 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -872,7 +913,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -890,28 +931,28 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="10" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -920,10 +961,10 @@
     <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1030,14 +1071,20 @@
     <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1050,12 +1097,6 @@
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1378,10 +1419,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
-  <dimension ref="A1:M20"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11:J11"/>
+      <selection activeCell="B11" sqref="B11:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.5" customHeight="1"/>
@@ -1424,7 +1465,7 @@
       <c r="J2" s="5"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
-      <c r="M2" s="20" t="s">
+      <c r="M2" s="22" t="s">
         <v>1</v>
       </c>
     </row>
@@ -1440,7 +1481,7 @@
       <c r="G3" s="8"/>
       <c r="H3" s="8"/>
       <c r="I3" s="8"/>
-      <c r="J3" s="21"/>
+      <c r="J3" s="23"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
     </row>
@@ -1465,7 +1506,7 @@
       <c r="J4" s="5"/>
       <c r="K4" s="2"/>
       <c r="L4" s="2"/>
-      <c r="M4" s="22" t="s">
+      <c r="M4" s="24" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1490,7 +1531,7 @@
       <c r="J5" s="5"/>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
-      <c r="M5" s="23"/>
+      <c r="M5" s="24"/>
     </row>
     <row r="6" customHeight="1" spans="1:13">
       <c r="A6" s="6"/>
@@ -1513,9 +1554,9 @@
       <c r="J6" s="14"/>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
-      <c r="M6" s="23"/>
+      <c r="M6" s="24"/>
     </row>
-    <row r="7" customHeight="1" spans="1:13">
+    <row r="7" customHeight="1" spans="1:12">
       <c r="A7" s="6"/>
       <c r="B7" s="16" t="s">
         <v>16</v>
@@ -1536,205 +1577,92 @@
       <c r="J7" s="18"/>
       <c r="K7" s="2"/>
       <c r="L7" s="2"/>
-      <c r="M7" s="24"/>
     </row>
     <row r="8" customHeight="1" spans="1:13">
       <c r="A8" s="6"/>
-      <c r="B8" s="5"/>
+      <c r="B8" s="16"/>
       <c r="C8" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="5" t="s">
+      <c r="D8" s="10" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="10" t="s">
+      <c r="E8" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="8"/>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="21"/>
+      <c r="F8" s="19"/>
+      <c r="G8" s="19"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="19"/>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
-      <c r="M8" s="20" t="s">
+      <c r="M8" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:12">
       <c r="A9" s="6"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
+      <c r="B9" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>25</v>
+      </c>
       <c r="D9" s="5"/>
-      <c r="E9" s="10"/>
-      <c r="F9" s="8"/>
-      <c r="G9" s="8"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="8"/>
-      <c r="J9" s="21"/>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20"/>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
     </row>
     <row r="10" customHeight="1" spans="1:12">
       <c r="A10" s="6"/>
-      <c r="B10" s="5"/>
+      <c r="B10" s="9"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
-      <c r="E10" s="10"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="21"/>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
+      <c r="J10" s="5"/>
       <c r="K10" s="2"/>
       <c r="L10" s="2"/>
     </row>
     <row r="11" customHeight="1" spans="1:12">
       <c r="A11" s="6"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="10"/>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
+      <c r="B11" s="21"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="21"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
       <c r="J11" s="21"/>
       <c r="K11" s="2"/>
       <c r="L11" s="2"/>
     </row>
     <row r="12" customHeight="1" spans="1:12">
       <c r="A12" s="6"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
+      <c r="B12" s="21"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="21"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
       <c r="J12" s="21"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
     </row>
-    <row r="13" customHeight="1" spans="1:12">
-      <c r="A13" s="6"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="8"/>
-      <c r="G13" s="8"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="8"/>
-      <c r="J13" s="21"/>
-      <c r="K13" s="2"/>
-      <c r="L13" s="2"/>
-    </row>
-    <row r="14" customHeight="1" spans="1:12">
-      <c r="A14" s="6"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="10"/>
-      <c r="F14" s="8"/>
-      <c r="G14" s="8"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="8"/>
-      <c r="J14" s="21"/>
-      <c r="K14" s="2"/>
-      <c r="L14" s="2"/>
-    </row>
-    <row r="15" customHeight="1" spans="1:12">
-      <c r="A15" s="6"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="8"/>
-      <c r="G15" s="8"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="8"/>
-      <c r="J15" s="21"/>
-      <c r="K15" s="2"/>
-      <c r="L15" s="2"/>
-    </row>
-    <row r="16" customHeight="1" spans="1:12">
-      <c r="A16" s="6"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="8"/>
-      <c r="G16" s="8"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="8"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="2"/>
-      <c r="L16" s="2"/>
-    </row>
-    <row r="17" customHeight="1" spans="1:12">
-      <c r="A17" s="6"/>
-      <c r="B17" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="5"/>
-      <c r="H17" s="5"/>
-      <c r="I17" s="5"/>
-      <c r="J17" s="5"/>
-      <c r="K17" s="2"/>
-      <c r="L17" s="2"/>
-    </row>
-    <row r="18" customHeight="1" spans="1:12">
-      <c r="A18" s="6"/>
-      <c r="B18" s="9"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="5"/>
-      <c r="H18" s="5"/>
-      <c r="I18" s="5"/>
-      <c r="J18" s="5"/>
-      <c r="K18" s="2"/>
-      <c r="L18" s="2"/>
-    </row>
-    <row r="19" customHeight="1" spans="1:12">
-      <c r="A19" s="6"/>
-      <c r="B19" s="19"/>
-      <c r="C19" s="19"/>
-      <c r="D19" s="19"/>
-      <c r="E19" s="19"/>
-      <c r="F19" s="19"/>
-      <c r="G19" s="19"/>
-      <c r="H19" s="19"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="19"/>
-      <c r="K19" s="2"/>
-      <c r="L19" s="2"/>
-    </row>
-    <row r="20" customHeight="1" spans="1:12">
-      <c r="A20" s="6"/>
-      <c r="B20" s="19"/>
-      <c r="C20" s="19"/>
-      <c r="D20" s="19"/>
-      <c r="E20" s="19"/>
-      <c r="F20" s="19"/>
-      <c r="G20" s="19"/>
-      <c r="H20" s="19"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="19"/>
-      <c r="K20" s="2"/>
-      <c r="L20" s="2"/>
-    </row>
   </sheetData>
-  <mergeCells count="26">
+  <mergeCells count="16">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="B3:J3"/>
@@ -1745,22 +1673,12 @@
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="G6:J6"/>
     <mergeCell ref="E7:J7"/>
-    <mergeCell ref="E8:J8"/>
-    <mergeCell ref="E9:J9"/>
-    <mergeCell ref="E10:J10"/>
-    <mergeCell ref="E11:J11"/>
-    <mergeCell ref="E12:J12"/>
-    <mergeCell ref="E13:J13"/>
-    <mergeCell ref="E14:J14"/>
-    <mergeCell ref="E15:J15"/>
-    <mergeCell ref="E16:J16"/>
-    <mergeCell ref="A2:A20"/>
-    <mergeCell ref="B7:B16"/>
-    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="A2:A12"/>
+    <mergeCell ref="B9:B10"/>
     <mergeCell ref="M4:M6"/>
-    <mergeCell ref="K2:L20"/>
-    <mergeCell ref="C17:J18"/>
-    <mergeCell ref="B19:J20"/>
+    <mergeCell ref="K2:L12"/>
+    <mergeCell ref="C9:J10"/>
+    <mergeCell ref="B11:J12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter/>

--- a/aiurt-module-system/src/main/resources/templates/emergencyTrainingRecordError.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/emergencyTrainingRecordError.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="24660" windowHeight="11145"/>
+    <workbookView windowWidth="25545" windowHeight="11160"/>
   </bookViews>
   <sheets>
     <sheet name="导入模板" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>应急队伍训练记录导入模板</t>
   </si>
@@ -218,10 +218,31 @@
     <t>t.trainingTime</t>
   </si>
   <si>
-    <t>t.trainingContent}}</t>
-  </si>
-  <si>
-    <t>{{$fe:mistakeMapList t.mistake}}</t>
+    <t>t.trainingContent</t>
+  </si>
+  <si>
+    <t>t.1</t>
+  </si>
+  <si>
+    <t>t.2</t>
+  </si>
+  <si>
+    <t>t.3</t>
+  </si>
+  <si>
+    <t>t.4</t>
+  </si>
+  <si>
+    <t>t.5</t>
+  </si>
+  <si>
+    <t>t.6</t>
+  </si>
+  <si>
+    <t>t.7</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> t.mistake}}</t>
   </si>
   <si>
     <t>训练效果及建议</t>
@@ -664,18 +685,9 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="16">
     <border>
       <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right/>
       <top/>
       <bottom/>
@@ -883,7 +895,7 @@
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="6" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -913,7 +925,7 @@
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="10" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -931,28 +943,28 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="14" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="14" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="14" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -961,10 +973,10 @@
     <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1022,7 +1034,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1035,29 +1047,26 @@
     <xf numFmtId="49" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="1" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
@@ -1065,25 +1074,22 @@
     <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1092,7 +1098,7 @@
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -1422,7 +1428,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11:J12"/>
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.5" customHeight="1"/>
@@ -1451,218 +1457,232 @@
       <c r="L1" s="2"/>
     </row>
     <row r="2" ht="36" customHeight="1" spans="1:13">
-      <c r="A2" s="3"/>
-      <c r="B2" s="4" t="s">
+      <c r="A2"/>
+      <c r="B2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="5"/>
-      <c r="D2" s="5"/>
-      <c r="E2" s="5"/>
-      <c r="F2" s="5"/>
-      <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-      <c r="I2" s="5"/>
-      <c r="J2" s="5"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="22" t="s">
+      <c r="C2" s="4"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="4"/>
+      <c r="K2"/>
+      <c r="L2"/>
+      <c r="M2" s="20" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" ht="122.25" customHeight="1" spans="1:12">
-      <c r="A3" s="6"/>
-      <c r="B3" s="7" t="s">
+      <c r="A3"/>
+      <c r="B3" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="8"/>
-      <c r="D3" s="8"/>
-      <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
-      <c r="G3" s="8"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="8"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
+      <c r="E3" s="6"/>
+      <c r="F3" s="6"/>
+      <c r="G3" s="6"/>
+      <c r="H3" s="6"/>
+      <c r="I3" s="6"/>
+      <c r="J3" s="21"/>
+      <c r="K3"/>
+      <c r="L3"/>
     </row>
     <row r="4" customHeight="1" spans="1:13">
-      <c r="A4" s="6"/>
-      <c r="B4" s="9" t="s">
+      <c r="A4"/>
+      <c r="B4" s="7" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="11" t="s">
+      <c r="D4" s="4"/>
+      <c r="E4" s="8"/>
+      <c r="F4" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H4" s="5"/>
-      <c r="I4" s="5"/>
-      <c r="J4" s="5"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="24" t="s">
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="4"/>
+      <c r="K4"/>
+      <c r="L4"/>
+      <c r="M4" s="22" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="5" customHeight="1" spans="1:13">
-      <c r="A5" s="6"/>
-      <c r="B5" s="9" t="s">
+      <c r="A5"/>
+      <c r="B5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="11" t="s">
+      <c r="D5" s="4"/>
+      <c r="E5" s="8"/>
+      <c r="F5" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H5" s="5"/>
-      <c r="I5" s="5"/>
-      <c r="J5" s="5"/>
-      <c r="K5" s="2"/>
-      <c r="L5" s="2"/>
-      <c r="M5" s="24"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="4"/>
+      <c r="K5"/>
+      <c r="L5"/>
+      <c r="M5" s="22"/>
     </row>
     <row r="6" customHeight="1" spans="1:13">
-      <c r="A6" s="6"/>
-      <c r="B6" s="9" t="s">
+      <c r="A6"/>
+      <c r="B6" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="12" t="s">
+      <c r="C6" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="D6" s="13"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="15" t="s">
+      <c r="D6" s="11"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G6" s="12" t="s">
+      <c r="G6" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="13"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="24"/>
+      <c r="H6" s="11"/>
+      <c r="I6" s="11"/>
+      <c r="J6" s="12"/>
+      <c r="K6"/>
+      <c r="L6"/>
+      <c r="M6" s="22"/>
     </row>
     <row r="7" customHeight="1" spans="1:12">
-      <c r="A7" s="6"/>
-      <c r="B7" s="16" t="s">
+      <c r="A7"/>
+      <c r="B7" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="C7" s="17" t="s">
+      <c r="C7" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="D7" s="17" t="s">
+      <c r="D7" s="15" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="18" t="s">
+      <c r="E7" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="18"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="16"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="16"/>
+      <c r="J7" s="16"/>
+      <c r="K7"/>
+      <c r="L7"/>
     </row>
     <row r="8" customHeight="1" spans="1:13">
-      <c r="A8" s="6"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="5" t="s">
+      <c r="A8"/>
+      <c r="B8" s="14"/>
+      <c r="C8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="8" t="s">
         <v>21</v>
       </c>
-      <c r="E8" s="19" t="s">
+      <c r="E8" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="F8" s="19"/>
-      <c r="G8" s="19"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="19"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
+      <c r="F8" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>26</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" t="s">
+        <v>28</v>
+      </c>
+      <c r="L8" t="s">
+        <v>29</v>
+      </c>
       <c r="M8" s="1" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="9" customHeight="1" spans="1:12">
-      <c r="A9" s="6"/>
-      <c r="B9" s="9" t="s">
-        <v>24</v>
-      </c>
-      <c r="C9" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="5"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
-      <c r="K9" s="2"/>
-      <c r="L9" s="2"/>
+      <c r="A9"/>
+      <c r="B9" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="18"/>
+      <c r="F9" s="18"/>
+      <c r="G9" s="18"/>
+      <c r="H9" s="18"/>
+      <c r="I9" s="18"/>
+      <c r="J9" s="18"/>
+      <c r="K9"/>
+      <c r="L9"/>
     </row>
     <row r="10" customHeight="1" spans="1:12">
-      <c r="A10" s="6"/>
-      <c r="B10" s="9"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="2"/>
-      <c r="L10" s="2"/>
+      <c r="A10"/>
+      <c r="B10" s="7"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4"/>
+      <c r="J10" s="4"/>
+      <c r="K10"/>
+      <c r="L10"/>
     </row>
     <row r="11" customHeight="1" spans="1:12">
-      <c r="A11" s="6"/>
-      <c r="B11" s="21"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="21"/>
-      <c r="G11" s="21"/>
-      <c r="H11" s="21"/>
-      <c r="I11" s="21"/>
-      <c r="J11" s="21"/>
-      <c r="K11" s="2"/>
-      <c r="L11" s="2"/>
+      <c r="A11"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="19"/>
+      <c r="D11" s="19"/>
+      <c r="E11" s="19"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
+      <c r="H11" s="19"/>
+      <c r="I11" s="19"/>
+      <c r="J11" s="19"/>
+      <c r="K11"/>
+      <c r="L11"/>
     </row>
     <row r="12" customHeight="1" spans="1:12">
-      <c r="A12" s="6"/>
-      <c r="B12" s="21"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="21"/>
-      <c r="G12" s="21"/>
-      <c r="H12" s="21"/>
-      <c r="I12" s="21"/>
-      <c r="J12" s="21"/>
-      <c r="K12" s="2"/>
-      <c r="L12" s="2"/>
+      <c r="A12"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="19"/>
+      <c r="D12" s="19"/>
+      <c r="E12" s="19"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
+      <c r="H12" s="19"/>
+      <c r="I12" s="19"/>
+      <c r="J12" s="19"/>
+      <c r="K12"/>
+      <c r="L12"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="14">
     <mergeCell ref="A1:L1"/>
     <mergeCell ref="B2:J2"/>
     <mergeCell ref="B3:J3"/>
@@ -1673,10 +1693,8 @@
     <mergeCell ref="C6:E6"/>
     <mergeCell ref="G6:J6"/>
     <mergeCell ref="E7:J7"/>
-    <mergeCell ref="A2:A12"/>
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="M4:M6"/>
-    <mergeCell ref="K2:L12"/>
     <mergeCell ref="C9:J10"/>
     <mergeCell ref="B11:J12"/>
   </mergeCells>

--- a/aiurt-module-system/src/main/resources/templates/emergencyTrainingRecordError.xlsx
+++ b/aiurt-module-system/src/main/resources/templates/emergencyTrainingRecordError.xlsx
@@ -4,10 +4,10 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="25545" windowHeight="11160"/>
+    <workbookView windowWidth="25545" windowHeight="8565"/>
   </bookViews>
   <sheets>
-    <sheet name="导入模板" sheetId="1" r:id="rId1"/>
+    <sheet name="应急队伍训练记录导入错误清单" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
@@ -16,7 +16,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
-    <t>应急队伍训练记录导入模板</t>
+    <t>应急队伍训练记录导入错误清单</t>
   </si>
   <si>
     <t>错误原因</t>
@@ -1428,7 +1428,7 @@
   <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+      <selection activeCell="B11" sqref="B11:J12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10" defaultRowHeight="16.5" customHeight="1"/>
